--- a/biology/Médecine/Hémosidérose_systémique/Hémosidérose_systémique.xlsx
+++ b/biology/Médecine/Hémosidérose_systémique/Hémosidérose_systémique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9mosid%C3%A9rose_syst%C3%A9mique</t>
+          <t>Hémosidérose_systémique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hémosidérose systémique est un dépôt d'hémosidérine (complexe protéique riche en fer) dans l'ensemble des organes. Elle s'oppose à l'hémosidérose localisée.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9mosid%C3%A9rose_syst%C3%A9mique</t>
+          <t>Hémosidérose_systémique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Anatomie pathologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'examen anatomopathologique de l'hémosidérose systémique montre des lésions du foie, du pancréas, de la peau, du cœur, des glandes endocrines et du tube digestif.
 Le foie est hypertrophique, de coloration brun rouille, extrêmement dur à la coupe (fibrose hépatique). À un stade assez tardif, il présente aussi une nodulation extrêmement fine (cirrhose). Microscopiquement, on observe une fibrose périportale. L'hémosidérine est très abondant dans les hépatocytes, les cellules de Küpffer et les macrophages de la sclérose. Au stade tardif, se constitue une cirrhose, avec apparition de nodules de régénération et d'une fibrose annulaire.
